--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam4-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam4-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H2">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I2">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J2">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N2">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q2">
-        <v>93.94491386405799</v>
+        <v>17.24513459940578</v>
       </c>
       <c r="R2">
-        <v>845.5042247765221</v>
+        <v>155.206211394652</v>
       </c>
       <c r="S2">
-        <v>0.07710492616935333</v>
+        <v>0.02788697070020146</v>
       </c>
       <c r="T2">
-        <v>0.07710492616935334</v>
+        <v>0.02788697070020146</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H3">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I3">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J3">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q3">
-        <v>309.457870741966</v>
+        <v>92.58162761313154</v>
       </c>
       <c r="R3">
-        <v>2785.120836677694</v>
+        <v>833.2346485181839</v>
       </c>
       <c r="S3">
-        <v>0.2539863553508813</v>
+        <v>0.1497130174161311</v>
       </c>
       <c r="T3">
-        <v>0.2539863553508813</v>
+        <v>0.1497130174161311</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H4">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I4">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J4">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N4">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O4">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P4">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q4">
-        <v>155.560404499628</v>
+        <v>49.11712838497422</v>
       </c>
       <c r="R4">
-        <v>1400.043640496652</v>
+        <v>442.054155464768</v>
       </c>
       <c r="S4">
-        <v>0.1276756027598794</v>
+        <v>0.07942691964822395</v>
       </c>
       <c r="T4">
-        <v>0.1276756027598794</v>
+        <v>0.07942691964822396</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H5">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I5">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J5">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N5">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q5">
-        <v>369.30696173683</v>
+        <v>100.2124526845347</v>
       </c>
       <c r="R5">
-        <v>3323.76265563147</v>
+        <v>901.9120741608118</v>
       </c>
       <c r="S5">
-        <v>0.3031072662406342</v>
+        <v>0.16205276425649</v>
       </c>
       <c r="T5">
-        <v>0.3031072662406342</v>
+        <v>0.16205276425649</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.711597</v>
       </c>
       <c r="I6">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J6">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N6">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q6">
-        <v>19.00194231395933</v>
+        <v>11.65918068294767</v>
       </c>
       <c r="R6">
-        <v>171.017480825634</v>
+        <v>104.932626146529</v>
       </c>
       <c r="S6">
-        <v>0.01559577095692765</v>
+        <v>0.01885396882346861</v>
       </c>
       <c r="T6">
-        <v>0.01559577095692765</v>
+        <v>0.01885396882346861</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.711597</v>
       </c>
       <c r="I7">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J7">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q7">
         <v>62.59307041303533</v>
@@ -883,10 +883,10 @@
         <v>563.337633717318</v>
       </c>
       <c r="S7">
-        <v>0.05137302142715225</v>
+        <v>0.1012187588668696</v>
       </c>
       <c r="T7">
-        <v>0.05137302142715224</v>
+        <v>0.1012187588668696</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.711597</v>
       </c>
       <c r="I8">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J8">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N8">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O8">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P8">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q8">
-        <v>31.46471385258266</v>
+        <v>33.20736473043733</v>
       </c>
       <c r="R8">
-        <v>283.182424673244</v>
+        <v>298.866282573936</v>
       </c>
       <c r="S8">
-        <v>0.02582454268949413</v>
+        <v>0.05369936673619924</v>
       </c>
       <c r="T8">
-        <v>0.02582454268949413</v>
+        <v>0.05369936673619925</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.711597</v>
       </c>
       <c r="I9">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J9">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N9">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q9">
-        <v>74.69855785084333</v>
+        <v>67.75215848826099</v>
       </c>
       <c r="R9">
-        <v>672.28702065759</v>
+        <v>609.7694263943489</v>
       </c>
       <c r="S9">
-        <v>0.06130855361026624</v>
+        <v>0.1095614793695286</v>
       </c>
       <c r="T9">
-        <v>0.06130855361026624</v>
+        <v>0.1095614793695286</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H10">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I10">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J10">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N10">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q10">
-        <v>0.7884358463962223</v>
+        <v>1.442446250981111</v>
       </c>
       <c r="R10">
-        <v>7.095922617566001</v>
+        <v>12.98201625883</v>
       </c>
       <c r="S10">
-        <v>0.0006471056838012664</v>
+        <v>0.002332568418405488</v>
       </c>
       <c r="T10">
-        <v>0.0006471056838012664</v>
+        <v>0.002332568418405488</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H11">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I11">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J11">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q11">
-        <v>2.597135578786889</v>
+        <v>7.743866589762222</v>
       </c>
       <c r="R11">
-        <v>23.374220209082</v>
+        <v>69.69479930785999</v>
       </c>
       <c r="S11">
-        <v>0.002131589021880805</v>
+        <v>0.01252254538520153</v>
       </c>
       <c r="T11">
-        <v>0.002131589021880804</v>
+        <v>0.01252254538520153</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H12">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I12">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J12">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N12">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O12">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P12">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q12">
-        <v>1.305545921995111</v>
+        <v>4.108336602968889</v>
       </c>
       <c r="R12">
-        <v>11.749913297956</v>
+        <v>36.97502942672</v>
       </c>
       <c r="S12">
-        <v>0.001071521786392802</v>
+        <v>0.006643558611453594</v>
       </c>
       <c r="T12">
-        <v>0.001071521786392802</v>
+        <v>0.006643558611453595</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H13">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I13">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J13">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N13">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q13">
-        <v>3.099421086045556</v>
+        <v>8.382136761136666</v>
       </c>
       <c r="R13">
-        <v>27.89478977441</v>
+        <v>75.43923085022999</v>
       </c>
       <c r="S13">
-        <v>0.002543837917112724</v>
+        <v>0.01355468702870862</v>
       </c>
       <c r="T13">
-        <v>0.002543837917112723</v>
+        <v>0.01355468702870862</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H14">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I14">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J14">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N14">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q14">
-        <v>9.572361608205114</v>
+        <v>10.80325301220445</v>
       </c>
       <c r="R14">
-        <v>86.15125447384601</v>
+        <v>97.22927710984</v>
       </c>
       <c r="S14">
-        <v>0.007856478916304432</v>
+        <v>0.01746985496005288</v>
       </c>
       <c r="T14">
-        <v>0.00785647891630443</v>
+        <v>0.01746985496005288</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H15">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I15">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J15">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q15">
-        <v>31.53169787918245</v>
+        <v>57.99796699880888</v>
       </c>
       <c r="R15">
-        <v>283.785280912642</v>
+        <v>521.9817029892799</v>
       </c>
       <c r="S15">
-        <v>0.02587951957129719</v>
+        <v>0.09378805349671006</v>
       </c>
       <c r="T15">
-        <v>0.02587951957129719</v>
+        <v>0.09378805349671006</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H16">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I16">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J16">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N16">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O16">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P16">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q16">
-        <v>15.85057011115956</v>
+        <v>30.76953456739555</v>
       </c>
       <c r="R16">
-        <v>142.655131000436</v>
+        <v>276.92581110656</v>
       </c>
       <c r="S16">
-        <v>0.01300929436085945</v>
+        <v>0.04975717087005876</v>
       </c>
       <c r="T16">
-        <v>0.01300929436085945</v>
+        <v>0.04975717087005877</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H17">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I17">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J17">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N17">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q17">
-        <v>37.62992201246779</v>
+        <v>62.77831437522666</v>
       </c>
       <c r="R17">
-        <v>338.66929811221</v>
+        <v>565.00482937704</v>
       </c>
       <c r="S17">
-        <v>0.03088461353776287</v>
+        <v>0.1015183154122964</v>
       </c>
       <c r="T17">
-        <v>0.03088461353776286</v>
+        <v>0.1015183154122964</v>
       </c>
     </row>
   </sheetData>
